--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rojas\OneDrive\Escritorio\Pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD7433E8-54BF-4D4D-B782-B8FAB565FE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4051E2-C1AB-4900-9444-AEDB04FA3FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10996" xr2:uid="{889D8788-C1BA-4976-A736-E8344E21D0FA}"/>
   </bookViews>
@@ -35,9 +35,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>hola</t>
+  </si>
+  <si>
+    <t>sdfafdadsfdsf</t>
   </si>
 </sst>
 </file>
@@ -389,15 +392,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9DA60E-362D-424D-B960-E94861243980}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -408,6 +411,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
